--- a/corpus/corpus_v2.xlsx
+++ b/corpus/corpus_v2.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MASTER\TMF\Software-Disambiguation\corpus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225A5DD6-5113-4088-B51D-83C207E42874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11249A9-4A74-4634-A1B0-23F42C999BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="corpus" sheetId="1" r:id="rId1"/>
+    <sheet name="Legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11711" uniqueCount="6543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11733" uniqueCount="6556">
   <si>
     <t>id</t>
   </si>
@@ -19649,13 +19650,52 @@
   </si>
   <si>
     <t>Viral replication,Virology,Biology,Latent Virus,Replication (statistics),Population,Human immunodeficiency virus (HIV)</t>
+  </si>
+  <si>
+    <t>Id of the entry in the corpus</t>
+  </si>
+  <si>
+    <t>mention label as it appears in the original text</t>
+  </si>
+  <si>
+    <t>doi of the paper the mention name appears</t>
+  </si>
+  <si>
+    <t>papragraph</t>
+  </si>
+  <si>
+    <t>text where the original mention appears in the paper</t>
+  </si>
+  <si>
+    <t>topics of the paper as obtained from OpenALEX. Only those with confidence &gt;0.5 are considered</t>
+  </si>
+  <si>
+    <t>authors of the paper</t>
+  </si>
+  <si>
+    <t>authors of the paper (Open Alex ids)</t>
+  </si>
+  <si>
+    <t>url (groung truth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL that the annotators think the software refers to. </t>
+  </si>
+  <si>
+    <t>Person or persons responsible for validating the ground truth</t>
+  </si>
+  <si>
+    <t>Possible comments about the mention</t>
+  </si>
+  <si>
+    <t>List of possible URLs that software refers to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -19672,6 +19712,19 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -19713,12 +19766,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -20024,8 +20079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1251"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A697" workbookViewId="0">
-      <selection activeCell="H697" sqref="H697:H709"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61421,4 +61476,110 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3DEA07-D6C8-4BF0-89AD-911E065FD6E5}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6543</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>6546</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6547</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6551</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6555</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>